--- a/INVENTARIOS DEPOSITO/14-07-2022/david 17-7-2022 BOTIN AIR FORCE.xlsx
+++ b/INVENTARIOS DEPOSITO/14-07-2022/david 17-7-2022 BOTIN AIR FORCE.xlsx
@@ -20,81 +20,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="50">
-  <si>
-    <t xml:space="preserve">CO_ART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ART DES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENERAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUB CAT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUB-LIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TALLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM-REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANT UNI_BULTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOT-BULTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNI-BLTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOT-UNI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALTANTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRECIO COSTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRECIO VENTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO_SENCAMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIF_LIMPIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_USER</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
+  <si>
+    <t xml:space="preserve">bar_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general_gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subcategory_artifact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subline_cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">register_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">units_to_change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_bags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">units_bags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing_units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note_observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost_product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sencamer_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provider_id_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model_code</t>
   </si>
   <si>
     <t xml:space="preserve">NBA40PEP-10001</t>
@@ -282,7 +285,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -374,11 +377,11 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13:Z13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="A1:Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.14"/>
@@ -386,7 +389,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,42 +466,42 @@
         <v>24</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>40</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>1</v>
@@ -510,7 +513,7 @@
         <v>35</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W2" s="0" t="n">
         <v>1</v>
@@ -522,42 +525,42 @@
         <v>5</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>41</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>1</v>
@@ -569,7 +572,7 @@
         <v>35</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>1</v>
@@ -581,42 +584,42 @@
         <v>5</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>43</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>1</v>
@@ -628,7 +631,7 @@
         <v>35</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>1</v>
@@ -640,42 +643,42 @@
         <v>5</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>44</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>1</v>
@@ -687,7 +690,7 @@
         <v>35</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W5" s="0" t="n">
         <v>1</v>
@@ -699,42 +702,42 @@
         <v>5</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>41</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>1</v>
@@ -746,7 +749,7 @@
         <v>35</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>1</v>
@@ -758,42 +761,42 @@
         <v>5</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>43</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>1</v>
@@ -805,7 +808,7 @@
         <v>35</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W7" s="0" t="n">
         <v>1</v>
@@ -817,42 +820,42 @@
         <v>5</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>44</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>1</v>
@@ -864,7 +867,7 @@
         <v>35</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W8" s="0" t="n">
         <v>1</v>
@@ -876,42 +879,42 @@
         <v>5</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>40</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>1</v>
@@ -923,7 +926,7 @@
         <v>35</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W9" s="0" t="n">
         <v>1</v>
@@ -935,42 +938,42 @@
         <v>5</v>
       </c>
       <c r="Z9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>41</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>1</v>
@@ -982,7 +985,7 @@
         <v>35</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>1</v>
@@ -994,42 +997,42 @@
         <v>5</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>42</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>1</v>
@@ -1041,7 +1044,7 @@
         <v>35</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>1</v>
@@ -1053,42 +1056,42 @@
         <v>5</v>
       </c>
       <c r="Z11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>43</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>1</v>
@@ -1100,7 +1103,7 @@
         <v>35</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>1</v>
@@ -1112,42 +1115,42 @@
         <v>5</v>
       </c>
       <c r="Z12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>44</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>1</v>
@@ -1159,7 +1162,7 @@
         <v>35</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>1</v>
@@ -1171,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="Z13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/INVENTARIOS DEPOSITO/14-07-2022/david 17-7-2022 BOTIN AIR FORCE.xlsx
+++ b/INVENTARIOS DEPOSITO/14-07-2022/david 17-7-2022 BOTIN AIR FORCE.xlsx
@@ -5,27 +5,58 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABDALLA\Desktop\INVENTARIOS\INVENTARIOS DEPOSITO\14-07-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b11507c57360364/Escritorio/INVENTARIOS/INVENTARIOS DEPOSITO/14-07-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33F1AA1-4773-47F1-99C9-306CE874764A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D33F1AA1-4773-47F1-99C9-306CE874764A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE682B47-45DF-4511-8BDC-BFD2C131AF11}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FBD3A55A-80AB-4B27-8CE0-5C4B9B08D856}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="50">
   <si>
     <t>CO_ART</t>
   </si>
@@ -144,47 +175,44 @@
     <t>0005700003577CI11</t>
   </si>
   <si>
-    <t>NBA41LAK-20002</t>
-  </si>
-  <si>
-    <t>NBA40LAK-20002</t>
-  </si>
-  <si>
-    <t>NBA43LAK-20002</t>
-  </si>
-  <si>
-    <t>NBA44LAK-20002</t>
-  </si>
-  <si>
     <t>BOTIN NIKE AIR FORCE LAKERS BLANCO AMARILLO MORADO</t>
   </si>
   <si>
     <t>BLANCO AMARRILLO</t>
   </si>
   <si>
-    <t>NBC40ARC-30003</t>
-  </si>
-  <si>
     <t>BOTIN NIKER AIR FORCE BLANCO ARCOIRIS AZUL AMARRILO</t>
   </si>
   <si>
-    <t>NBC41ARC-30003</t>
-  </si>
-  <si>
-    <t>NBC42ARC-30003</t>
-  </si>
-  <si>
-    <t>NBC43ARC-30003</t>
-  </si>
-  <si>
-    <t>NBC44ARC-30003</t>
+    <t>NBA41LAK-10001</t>
+  </si>
+  <si>
+    <t>NBA43LAK-10001</t>
+  </si>
+  <si>
+    <t>NBA44LAK-10001</t>
+  </si>
+  <si>
+    <t>NBC40ARC-10001</t>
+  </si>
+  <si>
+    <t>NBC41ARC-10001</t>
+  </si>
+  <si>
+    <t>NBC42ARC-10001</t>
+  </si>
+  <si>
+    <t>NBC43ARC-10001</t>
+  </si>
+  <si>
+    <t>NBC44ARC-10001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +223,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -563,15 +597,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EB4220-DEDD-4608-B2E0-D0A1E0FC381A}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="53.140625" customWidth="1"/>
     <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.7109375" customWidth="1"/>
@@ -810,7 +844,7 @@
         <v>37</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -869,7 +903,7 @@
         <v>37</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -895,10 +929,10 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -919,10 +953,10 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
         <v>37</v>
@@ -948,16 +982,17 @@
       <c r="Y6">
         <v>5</v>
       </c>
-      <c r="Z6" t="s">
-        <v>35</v>
+      <c r="Z6" t="e" cm="1">
+        <f t="array" ref="Z6">#REF!:Z11AIR FORCE</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -978,16 +1013,16 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
         <v>37</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -1013,10 +1048,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -1037,10 +1072,10 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8">
         <v>44</v>
-      </c>
-      <c r="J8">
-        <v>43</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
@@ -1072,10 +1107,10 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -1096,10 +1131,10 @@
         <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
         <v>37</v>
@@ -1131,10 +1166,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -1155,10 +1190,10 @@
         <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
         <v>37</v>
@@ -1193,7 +1228,7 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -1214,10 +1249,10 @@
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
         <v>37</v>
@@ -1252,7 +1287,7 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -1273,16 +1308,16 @@
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J12">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
         <v>37</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1311,7 +1346,7 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -1332,10 +1367,10 @@
         <v>35</v>
       </c>
       <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13">
         <v>44</v>
-      </c>
-      <c r="J13">
-        <v>43</v>
       </c>
       <c r="K13" t="s">
         <v>37</v>
@@ -1365,45 +1400,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14">
-        <v>44</v>
-      </c>
-      <c r="K14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>